--- a/filelist.xlsx
+++ b/filelist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eric/Desktop/repository/Local dependence toolbox/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eric/Desktop/Biometrika备份/Local dependence toolbox 2025419/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE45350E-CE0C-B14F-A511-B0EDFBA5C922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A7B238-8C0F-5F42-8E1F-1053E326ED5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2720" yWindow="500" windowWidth="24180" windowHeight="15620" xr2:uid="{772B97B5-03B2-AC48-B62B-9B7792D58D6B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
   <si>
     <t>file name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,10 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>example_3/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>functions/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,10 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>main_example_3.m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>main.m</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -238,10 +230,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">characterize distribution features of X and Y, and draw their scatter plot </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>marginal_distribution.R</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -283,10 +271,6 @@
   </si>
   <si>
     <t>estimate copula models for Example 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>estimate copula models for Example 3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -696,16 +680,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D5E5241-435D-1646-9C1E-010F994308C5}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="45" style="1" customWidth="1"/>
     <col min="5" max="5" width="136.6640625" style="6" customWidth="1"/>
@@ -716,10 +700,10 @@
     <row r="1" spans="1:9" s="4" customFormat="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
@@ -740,10 +724,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="9" customFormat="1">
@@ -754,7 +738,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -769,10 +753,10 @@
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -780,10 +764,10 @@
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -791,10 +775,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -805,10 +789,10 @@
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -816,10 +800,10 @@
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -827,84 +811,86 @@
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="9" customFormat="1">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>37</v>
-      </c>
+      <c r="B11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="E11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="9" customFormat="1">
-      <c r="A13" s="7">
+    <row r="13" spans="1:9">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="E13" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1">
+      <c r="D13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="9" customFormat="1">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>60</v>
-      </c>
+      <c r="B14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="E14" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -912,10 +898,10 @@
         <v>15</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="9" customFormat="1">
@@ -923,25 +909,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C17" s="7"/>
       <c r="E17" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" ht="17">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -950,59 +936,59 @@
         <v>18</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="9" customFormat="1">
-      <c r="A20" s="7">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="E20" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="1:9" ht="17">
+      <c r="D20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="1">
+        <v>6</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="9" customFormat="1">
+      <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>58</v>
-      </c>
+      <c r="B22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="E22" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1010,48 +996,48 @@
         <v>23</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="9" customFormat="1">
-      <c r="A25" s="7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="E25" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="1">
+      <c r="D25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="9" customFormat="1">
+      <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>42</v>
-      </c>
+      <c r="B26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="E26" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1059,10 +1045,10 @@
         <v>27</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="9" customFormat="1">
@@ -1070,55 +1056,17 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C29" s="7"/>
-      <c r="E29" s="9" t="s">
-        <v>41</v>
+      <c r="D29" s="7"/>
+      <c r="E29" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="9" customFormat="1">
-      <c r="A32" s="7">
-        <v>31</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/filelist.xlsx
+++ b/filelist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eric/Desktop/Biometrika备份/Local dependence toolbox 2025419/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A7B238-8C0F-5F42-8E1F-1053E326ED5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1CB6EF-C34F-EE47-BB17-6BEDFAE50DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2720" yWindow="500" windowWidth="24180" windowHeight="15620" xr2:uid="{772B97B5-03B2-AC48-B62B-9B7792D58D6B}"/>
+    <workbookView xWindow="7140" yWindow="580" windowWidth="21000" windowHeight="15620" xr2:uid="{772B97B5-03B2-AC48-B62B-9B7792D58D6B}"/>
   </bookViews>
   <sheets>
     <sheet name="file list" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
   <si>
     <t>file name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,10 +134,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>data/simulated_u.csv and data/simulated_v.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>draw type I local Kendall's tau surfaces</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -198,30 +194,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>reproduce results in Figures 5, S5, S7, and S9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reproduce results in Figures S4, S6, S8, and S10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>all functions used in this package. Readers can refer to each file for more detailed introduction</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>reproduce simulation results in Section 7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reproduce simulation results in Section 6: comparative analysis of global and local kendall's tau for copula models</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reproduce results in Section 5: draw two types of local Kendall's tau surfaces</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">characterize distribution features of CSF FAM171A2 and total α-syn, and drawing their scatter plot </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -254,23 +230,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dataset for Example 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>generate all plots in Figure 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data for Figure 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>estimate copula models for Example 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>estimate copula models for Example 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reproduce results in subsection 3.3: draw two types of local Kendall's tau surfaces</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reproduce simulation results in Section 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">generate all plots in Figure S.16 of the Supplementary Materials </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data for Figure S.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reproduce simulation results in Section 4: comparative analysis of global and local kendall's tau for copula models</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reproduce results in Figures S.7, S.9, S.11, and S.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reproduce results in Figures S.8, S.10, S.12, and S.14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -680,18 +672,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D5E5241-435D-1646-9C1E-010F994308C5}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="44.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="136.6640625" style="6" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="1" customWidth="1"/>
     <col min="7" max="9" width="10.83203125" style="1"/>
@@ -738,7 +730,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -753,10 +745,10 @@
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -767,7 +759,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -778,7 +770,7 @@
         <v>22</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -789,10 +781,10 @@
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -803,7 +795,7 @@
         <v>15</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -814,224 +806,224 @@
         <v>23</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="9" customFormat="1">
-      <c r="A11" s="7">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="9" customFormat="1">
+      <c r="A10" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="E11" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="E10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <v>11</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="9" customFormat="1">
+      <c r="A13" s="7">
         <v>13</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="B13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="E13" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1">
         <v>14</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="9" customFormat="1">
-      <c r="A14" s="7">
-        <v>13</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="E14" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
+      <c r="D14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1">
+    <row r="16" spans="1:9" s="9" customFormat="1">
+      <c r="A16" s="7">
+        <v>16</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="E16" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" ht="17">
+      <c r="A17" s="1">
+        <v>17</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="6" t="s">
+      <c r="E17" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="9" customFormat="1">
-      <c r="A17" s="7">
-        <v>16</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="E17" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" ht="17">
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>27</v>
+        <v>44</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="9" customFormat="1">
-      <c r="A22" s="7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="9" customFormat="1">
+      <c r="A21" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="E22" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
+      <c r="B21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="E21" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1">
+        <v>22</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="9" customFormat="1">
+      <c r="A25" s="7">
+        <v>25</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="E25" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1">
+        <v>26</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="9" customFormat="1">
-      <c r="A26" s="7">
-        <v>25</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="E26" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
+      <c r="E26" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>31</v>
@@ -1040,33 +1032,22 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="9" customFormat="1">
-      <c r="A29" s="7">
+    <row r="28" spans="1:9" s="9" customFormat="1">
+      <c r="A28" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B28" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/filelist.xlsx
+++ b/filelist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eric/Desktop/Biometrika备份/Local dependence toolbox 2025419/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1CB6EF-C34F-EE47-BB17-6BEDFAE50DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDED429-4B9A-AE42-A797-C2A9AF37D30E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7140" yWindow="580" windowWidth="21000" windowHeight="15620" xr2:uid="{772B97B5-03B2-AC48-B62B-9B7792D58D6B}"/>
+    <workbookView xWindow="5200" yWindow="540" windowWidth="21000" windowHeight="15620" xr2:uid="{772B97B5-03B2-AC48-B62B-9B7792D58D6B}"/>
   </bookViews>
   <sheets>
     <sheet name="file list" sheetId="1" r:id="rId1"/>
@@ -182,10 +182,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>reproduce three examples</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>estimate copula models</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -263,6 +259,10 @@
   </si>
   <si>
     <t>reproduce results in Figures S.8, S.10, S.12, and S.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reproduce two examples</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -674,15 +674,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D5E5241-435D-1646-9C1E-010F994308C5}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="44.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="136.6640625" style="6" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="1" customWidth="1"/>
@@ -730,7 +730,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -745,10 +745,10 @@
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -770,7 +770,7 @@
         <v>22</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -781,10 +781,10 @@
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -806,7 +806,7 @@
         <v>23</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="9" customFormat="1">
@@ -818,7 +818,7 @@
       </c>
       <c r="C10" s="7"/>
       <c r="E10" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -833,7 +833,7 @@
         <v>13</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -844,7 +844,7 @@
         <v>14</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="9" customFormat="1">
@@ -856,7 +856,7 @@
       </c>
       <c r="C13" s="7"/>
       <c r="E13" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -894,7 +894,7 @@
       </c>
       <c r="C16" s="7"/>
       <c r="E16" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -917,10 +917,10 @@
         <v>18</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -928,10 +928,10 @@
         <v>19</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -950,11 +950,11 @@
         <v>21</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" s="7"/>
       <c r="E21" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
@@ -969,7 +969,7 @@
         <v>28</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -980,7 +980,7 @@
         <v>29</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="C25" s="7"/>
       <c r="E25" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
@@ -1042,7 +1042,7 @@
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>

--- a/filelist.xlsx
+++ b/filelist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eric/Desktop/Biometrika备份/Local dependence toolbox 2025419/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eric/Desktop/revised_version_20251208/Local dependence toolbox 20251208/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDED429-4B9A-AE42-A797-C2A9AF37D30E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19F43A7-93E7-DC41-AB08-6AA5FEE5CE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5200" yWindow="540" windowWidth="21000" windowHeight="15620" xr2:uid="{772B97B5-03B2-AC48-B62B-9B7792D58D6B}"/>
+    <workbookView xWindow="7020" yWindow="500" windowWidth="20880" windowHeight="15620" xr2:uid="{772B97B5-03B2-AC48-B62B-9B7792D58D6B}"/>
   </bookViews>
   <sheets>
     <sheet name="file list" sheetId="1" r:id="rId1"/>
@@ -36,32 +36,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
-  <si>
-    <t>file name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
   <si>
     <t>/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>data examples/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>example_1/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>simulation study/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fun_copula_estimation.m</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,18 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>local dependence surfaces/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>copula estimation/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add required directories to the MATLAB path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>main_example_1.m</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,18 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>first-level folder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>second-level folder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quantile dependence/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>configuration.m</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -134,22 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>draw type I local Kendall's tau surfaces</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>draw type II local Kendall's tau surfaces</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>compute empirical biases, empirical standard errors, average bootstrap, standard errors, and the empirical 95% coverage probabilities for two estimators</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>generate data from the FGM copula model</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>comparison_global_and_generalized_local_tau.m</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -166,42 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>draw quantile Kendall's tau curve along the main diagonal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>draw quantile Kendall's tau curve along the minor diagonal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>use copula model to estimate local Kendall's tau in different regions</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>function for estimating clayton, gumbel and frank copula models</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>estimate copula models</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>draw quantile kendall's tau curves</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>all functions used in this package. Readers can refer to each file for more detailed introduction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">characterize distribution features of CSF FAM171A2 and total α-syn, and drawing their scatter plot </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">characterize distribution features of cumulative cases and number of deaths, and draw their scatter plot </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>marginal_distribution.R</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -214,55 +122,167 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>comparative analysis/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dataset for Example 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dataset for Example 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>estimate copula models for Example 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>estimate copula models for Example 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reproduce results in subsection 3.3: draw two types of local Kendall's tau surfaces</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reproduce simulation results in Section 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">generate all plots in Figure S.16 of the Supplementary Materials </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data for Figure S.16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reproduce simulation results in Section 4: comparative analysis of global and local kendall's tau for copula models</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reproduce results in Figures S.7, S.9, S.11, and S.13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reproduce results in Figures S.8, S.10, S.12, and S.14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reproduce two examples</t>
+    <t>Add required directories to the MATLAB path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>File Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>First-Level Folder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Second-Level Folder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reproduce two examples</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Characterize distribution features of CSF FAM171A2 and total α-syn, and drawing their scatter plot </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Estimate local Kendall's tau in different regions using copula models</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dataset for Example 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Characterize distribution features of cumulative cases and number of deaths, and draw their scatter plot </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Estimate copula models</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Estimate copula models for Example 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Estimate copula models for Example 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Draw type I local Kendall's tau surfaces</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Draw type II local Kendall's tau surfaces</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compute empirical biases, empirical standard errors, average bootstrap, standard errors, and the empirical 95% coverage probabilities for two estimators</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function for estimating clayton, gumbel and frank copula models</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Generate data from the FGM copula model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Draw quantile kendall's tau curves</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Draw quantile Kendall's tau curve along the main diagonal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Draw quantile Kendall's tau curve along the minor diagonal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All functions used in this package. Readers can refer to each file for more detailed introduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data_examples/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>copula_estimation/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>simulation_study/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comparative_analysis/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quantile_dependence/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ld_surfaces/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>copula mis-spec/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scenario_1.m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reproduce simulation results in Section 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>experiment_results.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reproduce copula misspecification experiments Scenario 1, Scenario 2, and Scenario 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reproduce results in subsection 4.2: draw two types of local Kendall's tau surfaces</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Generate all plots in Web Figure 15 of the Supplementary Materials </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data for Web Figure 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reproduce simulation results in Section 5: comparative analysis of global and local kendall's tau for copula models</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reproduce results in Web Figures 7, 9, 11, and 13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reproduce results in Web Figures 8, 10, 12, and 14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dataset for Example 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Results for the copula model misspecification experiments (Web Tables 6,7, and 8)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -270,7 +290,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -295,8 +315,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -306,6 +335,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,17 +366,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -357,6 +386,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -672,83 +707,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D5E5241-435D-1646-9C1E-010F994308C5}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="136.6640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="46.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="134" style="4" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="1" customWidth="1"/>
     <col min="7" max="9" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+    <row r="1" spans="1:9" s="3" customFormat="1">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="7" customFormat="1">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="9" customFormat="1">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="B3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>39</v>
+        <v>18</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -756,10 +791,10 @@
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>34</v>
+        <v>8</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -767,10 +802,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>45</v>
+        <v>12</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -778,13 +813,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>40</v>
+        <v>18</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -792,10 +827,10 @@
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>34</v>
+        <v>8</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -803,251 +838,276 @@
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="9" customFormat="1">
-      <c r="A10" s="7">
-        <v>10</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="E10" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="7" customFormat="1">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="E10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>47</v>
+        <v>6</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="7" customFormat="1">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" s="9" customFormat="1">
-      <c r="A13" s="7">
-        <v>13</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="E13" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
+      <c r="C13" s="5"/>
+      <c r="E13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="7" customFormat="1">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="9" customFormat="1">
-      <c r="A16" s="7">
-        <v>16</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="E16" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
+      <c r="B16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="E16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
     </row>
     <row r="17" spans="1:9" ht="17">
       <c r="A17" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>26</v>
+        <v>8</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>51</v>
+        <v>20</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>52</v>
+      <c r="E19" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="9" customFormat="1">
-      <c r="A21" s="7">
-        <v>21</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="E21" s="9" t="s">
+      <c r="C21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="7" customFormat="1">
+      <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="1">
-        <v>23</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="B23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="E23" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="9" customFormat="1">
-      <c r="A25" s="7">
-        <v>25</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="E25" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
+      <c r="D25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="7" customFormat="1">
+      <c r="A27" s="5">
         <v>26</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="1">
+      <c r="B27" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="E27" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="9" customFormat="1">
-      <c r="A28" s="7">
+      <c r="D28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
+      <c r="D29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="7" customFormat="1">
+      <c r="A30" s="5">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/filelist.xlsx
+++ b/filelist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eric/Desktop/revised_version_20251208/Local dependence toolbox 20251208/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19F43A7-93E7-DC41-AB08-6AA5FEE5CE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADDC724-30AF-1944-9601-2AD2C92BB411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7020" yWindow="500" windowWidth="20880" windowHeight="15620" xr2:uid="{772B97B5-03B2-AC48-B62B-9B7792D58D6B}"/>
+    <workbookView xWindow="10220" yWindow="500" windowWidth="17680" windowHeight="15620" xr2:uid="{772B97B5-03B2-AC48-B62B-9B7792D58D6B}"/>
   </bookViews>
   <sheets>
     <sheet name="file list" sheetId="1" r:id="rId1"/>
@@ -146,10 +146,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Characterize distribution features of CSF FAM171A2 and total α-syn, and drawing their scatter plot </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Estimate local Kendall's tau in different regions using copula models</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -158,10 +154,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Characterize distribution features of cumulative cases and number of deaths, and draw their scatter plot </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Estimate copula models</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -206,10 +198,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>All functions used in this package. Readers can refer to each file for more detailed introduction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>data_examples/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -283,6 +271,18 @@
   </si>
   <si>
     <t>Results for the copula model misspecification experiments (Web Tables 6,7, and 8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Characterize the marginal distribution features of CSF FAM171A2 and total α-syn, and draw their scatter plot </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Characterize the marginal distribution features of cumulative cases and number of deaths, and draw their scatter plot </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Folder containing all core functions used in this package. Readers can refer to each file for more detailed introduction</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -710,7 +710,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -719,7 +719,7 @@
     <col min="2" max="2" width="21.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="46.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="134" style="4" customWidth="1"/>
+    <col min="5" max="5" width="106.33203125" style="4" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="1" customWidth="1"/>
     <col min="7" max="9" width="10.83203125" style="1"/>
   </cols>
@@ -762,7 +762,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>26</v>
@@ -783,7 +783,7 @@
         <v>18</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -794,7 +794,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -805,7 +805,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -819,7 +819,7 @@
         <v>18</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -830,7 +830,7 @@
         <v>8</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -841,7 +841,7 @@
         <v>13</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="7" customFormat="1">
@@ -849,11 +849,11 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C10" s="5"/>
       <c r="E10" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -868,7 +868,7 @@
         <v>6</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -879,7 +879,7 @@
         <v>7</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="7" customFormat="1">
@@ -887,11 +887,11 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C13" s="5"/>
       <c r="E13" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -906,7 +906,7 @@
         <v>10</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -917,7 +917,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="7" customFormat="1">
@@ -925,18 +925,18 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C16" s="5"/>
       <c r="E16" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9" ht="17">
+    <row r="17" spans="1:9" ht="34">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -944,7 +944,7 @@
         <v>8</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -955,7 +955,7 @@
         <v>20</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -966,7 +966,7 @@
         <v>19</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -977,7 +977,7 @@
         <v>2</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -985,13 +985,13 @@
         <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -999,10 +999,10 @@
         <v>21</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="7" customFormat="1">
@@ -1010,11 +1010,11 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C23" s="5"/>
       <c r="E23" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
@@ -1029,7 +1029,7 @@
         <v>14</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1040,7 +1040,7 @@
         <v>15</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1051,7 +1051,7 @@
         <v>3</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="7" customFormat="1">
@@ -1059,11 +1059,11 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C27" s="5"/>
       <c r="E27" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
@@ -1078,7 +1078,7 @@
         <v>16</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1089,7 +1089,7 @@
         <v>17</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="7" customFormat="1">
@@ -1102,7 +1102,7 @@
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="6" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>

--- a/filelist.xlsx
+++ b/filelist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eric/Desktop/revised_version_20251208/Local dependence toolbox 20251208/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADDC724-30AF-1944-9601-2AD2C92BB411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1581D6E9-04A1-3842-B2D5-1A2CCA77D1D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10220" yWindow="500" windowWidth="17680" windowHeight="15620" xr2:uid="{772B97B5-03B2-AC48-B62B-9B7792D58D6B}"/>
+    <workbookView xWindow="2100" yWindow="500" windowWidth="17680" windowHeight="15620" xr2:uid="{772B97B5-03B2-AC48-B62B-9B7792D58D6B}"/>
   </bookViews>
   <sheets>
     <sheet name="file list" sheetId="1" r:id="rId1"/>
@@ -282,7 +282,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Folder containing all core functions used in this package. Readers can refer to each file for more detailed introduction</t>
+    <t>Folder containing all core functions used in this package. Readers can refer to each file for a more detailed introduction</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -709,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D5E5241-435D-1646-9C1E-010F994308C5}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="D11" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
